--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\California\Models\eps-1.4.2-california-wipA - (for testing)\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -88,16 +88,16 @@
     <t>offshore wind</t>
   </si>
   <si>
-    <t>Biomass and geothermal are guaranteed at their full "bid capacity factor"</t>
+    <t>crude oil</t>
   </si>
   <si>
-    <t>as these are typically legacy units that are inflexible.</t>
+    <t>heavy or residual fuel oil</t>
   </si>
   <si>
-    <t>Hydro and nuclear are also "must take" and therefore assigned</t>
+    <t>municipal solid waste</t>
   </si>
   <si>
-    <t>their full expected capacity factor for guaranteed dispatch.</t>
+    <t>BAU Guaranteed Dispatch (dimensionless)</t>
   </si>
 </sst>
 </file>
@@ -141,11 +141,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,11 +454,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -502,26 +503,6 @@
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -535,11 +516,9 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -547,7 +526,10 @@
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B1" s="2">
         <v>2015</v>
       </c>
@@ -669,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:AK8" si="0">$B2</f>
+        <f t="shared" ref="D2:AK9" si="0">$B2</f>
         <v>0</v>
       </c>
       <c r="E2">
@@ -1698,112 +1680,147 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <f t="shared" ref="D9:AK14" si="2">$B9</f>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -1811,112 +1828,147 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -1931,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:AK14" si="2">$B11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E11">
@@ -2511,7 +2563,347 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/bgdpbes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B831B-97A2-1F47-B0E7-C814EF427FC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FD48E3-F2AB-4F32-8B73-FA4805E16796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="23000" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -503,11 +503,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -515,42 +515,42 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -568,15 +568,17 @@
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -689,7 +691,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -837,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -985,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1133,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1281,599 +1283,599 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
         <f t="shared" ref="D9:AK14" si="2">$B9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2021,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2169,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2317,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2465,155 +2467,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <f>$B14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2726,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2839,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FD48E3-F2AB-4F32-8B73-FA4805E16796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2EBF83-380A-4DB6-AE01-A7BC70F86767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1880,147 +1880,147 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2EBF83-380A-4DB6-AE01-A7BC70F86767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0376537F-F115-4CAB-A708-3D1238042804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15:AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,112 +2620,112 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0376537F-F115-4CAB-A708-3D1238042804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BB2B9F-50DC-430A-A1A3-017C65232250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2620,112 +2620,112 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BB2B9F-50DC-430A-A1A3-017C65232250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C675A6B7-1944-4BEB-ADA5-F2D2872020CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BGDPbES" sheetId="2" r:id="rId2"/>
+    <sheet name="Wgtd Avg Expected Cap Factors" sheetId="8" r:id="rId2"/>
+    <sheet name="BGDPbES" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Notes:</t>
   </si>
@@ -64,9 +65,6 @@
     <t>natural gas peaker</t>
   </si>
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
     <t>BGDPbES BAU Guaranteed Dispatch Percentage by Electricity Source</t>
   </si>
   <si>
@@ -76,18 +74,6 @@
     <t>begins) in the BAU case.</t>
   </si>
   <si>
-    <t>Some dispatch from peaking plants (natural gas peakers and petroleum-fired plants)</t>
-  </si>
-  <si>
-    <t>is guaranteed in the model, to provide for grid stability and regulation needs.</t>
-  </si>
-  <si>
-    <t>The model will disatch these plants in the guaranteed dispatch section by the larger</t>
-  </si>
-  <si>
-    <t>of the default amount or the amount specified here by the user.</t>
-  </si>
-  <si>
     <t>lignite</t>
   </si>
   <si>
@@ -110,13 +96,130 @@
   </si>
   <si>
     <t>BAU Guaranteed Dispatch (dimensionless)</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>Time (Year)</t>
+  </si>
+  <si>
+    <t>Weighted Average Expected Capacity Factors[hard coal es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Weighted Average Expected Capacity Factors[natural gas steam turbine es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Weighted Average Expected Capacity Factors[natural gas combined cycle es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Weighted Average Expected Capacity Factors[nuclear es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Weighted Average Expected Capacity Factors[hydro es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Weighted Average Expected Capacity Factors[onshore wind es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Weighted Average Expected Capacity Factors[solar PV es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Weighted Average Expected Capacity Factors[solar thermal es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Weighted Average Expected Capacity Factors[biomass es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Weighted Average Expected Capacity Factors[geothermal es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Weighted Average Expected Capacity Factors[petroleum es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Weighted Average Expected Capacity Factors[natural gas peaker es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Weighted Average Expected Capacity Factors[lignite es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Weighted Average Expected Capacity Factors[offshore wind es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Weighted Average Expected Capacity Factors[crude oil es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Weighted Average Expected Capacity Factors[heavy or residual fuel oil es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Weighted Average Expected Capacity Factors[municipal solid waste es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Petroleum</t>
+  </si>
+  <si>
+    <t>Weighted Average Expected Capacity Factors (calculated EPS variable)</t>
+  </si>
+  <si>
+    <t>For nuclear plants, we guarantee full dispatch, as regulators and utilities often run</t>
+  </si>
+  <si>
+    <t>these plants as baseload irresective of cost, rather than ramping them up and down.</t>
+  </si>
+  <si>
+    <t>For petroleum, we use the weighted average expected capacity factor.</t>
+  </si>
+  <si>
+    <t>In reality, petroleum is primarily used in fuel-switching applications in New England</t>
+  </si>
+  <si>
+    <t>(where there can be specific, unusual hours of NG shortage due to pipeline congestion)</t>
+  </si>
+  <si>
+    <t>and in places like Hawaii, without much NG access, where it is easier to transport petroleum</t>
+  </si>
+  <si>
+    <t>by ship due to its higher volumetric energy density.</t>
+  </si>
+  <si>
+    <t>We can't capture some of these unusual hours and sub-regional dynamics directly, so</t>
+  </si>
+  <si>
+    <t>we use guaranteed dispatch to align modeled petroleum dispatch with real-world experience.</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,13 +235,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -162,7 +286,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,9 +311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -221,9 +351,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,26 +386,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,26 +421,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -501,58 +597,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -562,25 +696,1805 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2722D0-CF31-4EFA-BD71-F29BE900266B}">
+  <dimension ref="A1:AF18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="91.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>2020</v>
+      </c>
+      <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1">
+        <v>2022</v>
+      </c>
+      <c r="E1">
+        <v>2023</v>
+      </c>
+      <c r="F1">
+        <v>2024</v>
+      </c>
+      <c r="G1">
+        <v>2025</v>
+      </c>
+      <c r="H1">
+        <v>2026</v>
+      </c>
+      <c r="I1">
+        <v>2027</v>
+      </c>
+      <c r="J1">
+        <v>2028</v>
+      </c>
+      <c r="K1">
+        <v>2029</v>
+      </c>
+      <c r="L1">
+        <v>2030</v>
+      </c>
+      <c r="M1">
+        <v>2031</v>
+      </c>
+      <c r="N1">
+        <v>2032</v>
+      </c>
+      <c r="O1">
+        <v>2033</v>
+      </c>
+      <c r="P1">
+        <v>2034</v>
+      </c>
+      <c r="Q1">
+        <v>2035</v>
+      </c>
+      <c r="R1">
+        <v>2036</v>
+      </c>
+      <c r="S1">
+        <v>2037</v>
+      </c>
+      <c r="T1">
+        <v>2038</v>
+      </c>
+      <c r="U1">
+        <v>2039</v>
+      </c>
+      <c r="V1">
+        <v>2040</v>
+      </c>
+      <c r="W1">
+        <v>2041</v>
+      </c>
+      <c r="X1">
+        <v>2042</v>
+      </c>
+      <c r="Y1">
+        <v>2043</v>
+      </c>
+      <c r="Z1">
+        <v>2044</v>
+      </c>
+      <c r="AA1">
+        <v>2045</v>
+      </c>
+      <c r="AB1">
+        <v>2046</v>
+      </c>
+      <c r="AC1">
+        <v>2047</v>
+      </c>
+      <c r="AD1">
+        <v>2048</v>
+      </c>
+      <c r="AE1">
+        <v>2049</v>
+      </c>
+      <c r="AF1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="C2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="E2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="G2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="H2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="I2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="J2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="K2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="L2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="M2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="N2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="O2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="P2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="Q2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="R2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="S2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="T2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="U2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="V2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="W2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="X2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="Y2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="Z2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="AA2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="AB2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="AC2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="AD2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="AE2">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="AF2">
+        <v>0.54992799999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>0.133577</v>
+      </c>
+      <c r="C3">
+        <v>0.133577</v>
+      </c>
+      <c r="D3">
+        <v>0.133577</v>
+      </c>
+      <c r="E3">
+        <v>0.133577</v>
+      </c>
+      <c r="F3">
+        <v>0.133577</v>
+      </c>
+      <c r="G3">
+        <v>0.133577</v>
+      </c>
+      <c r="H3">
+        <v>0.133577</v>
+      </c>
+      <c r="I3">
+        <v>0.133577</v>
+      </c>
+      <c r="J3">
+        <v>0.133577</v>
+      </c>
+      <c r="K3">
+        <v>0.133577</v>
+      </c>
+      <c r="L3">
+        <v>0.133577</v>
+      </c>
+      <c r="M3">
+        <v>0.133577</v>
+      </c>
+      <c r="N3">
+        <v>0.133577</v>
+      </c>
+      <c r="O3">
+        <v>0.133577</v>
+      </c>
+      <c r="P3">
+        <v>0.133577</v>
+      </c>
+      <c r="Q3">
+        <v>0.133577</v>
+      </c>
+      <c r="R3">
+        <v>0.133577</v>
+      </c>
+      <c r="S3">
+        <v>0.133577</v>
+      </c>
+      <c r="T3">
+        <v>0.133577</v>
+      </c>
+      <c r="U3">
+        <v>0.133577</v>
+      </c>
+      <c r="V3">
+        <v>0.133577</v>
+      </c>
+      <c r="W3">
+        <v>0.133577</v>
+      </c>
+      <c r="X3">
+        <v>0.133577</v>
+      </c>
+      <c r="Y3">
+        <v>0.133577</v>
+      </c>
+      <c r="Z3">
+        <v>0.133577</v>
+      </c>
+      <c r="AA3">
+        <v>0.133577</v>
+      </c>
+      <c r="AB3">
+        <v>0.133577</v>
+      </c>
+      <c r="AC3">
+        <v>0.133577</v>
+      </c>
+      <c r="AD3">
+        <v>0.133577</v>
+      </c>
+      <c r="AE3">
+        <v>0.133577</v>
+      </c>
+      <c r="AF3">
+        <v>0.133577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="J4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="K4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="L4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="M4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="N4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="O4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="P4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="Q4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="R4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="S4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="T4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="U4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="V4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="W4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="X4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="Y4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="Z4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="AA4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="AB4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="AC4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="AD4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="AE4">
+        <v>0.46789599999999998</v>
+      </c>
+      <c r="AF4">
+        <v>0.46789599999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="C5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="D5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="E5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="F5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="G5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="H5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="I5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="J5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="K5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="L5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="M5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="N5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="O5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="P5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="Q5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="R5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="S5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="T5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="U5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="V5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="W5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="X5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="Y5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="Z5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="AA5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="AB5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="AC5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="AD5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="AE5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="AF5">
+        <v>0.91180000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>0.405389</v>
+      </c>
+      <c r="C6">
+        <v>0.405389</v>
+      </c>
+      <c r="D6">
+        <v>0.405389</v>
+      </c>
+      <c r="E6">
+        <v>0.405389</v>
+      </c>
+      <c r="F6">
+        <v>0.405389</v>
+      </c>
+      <c r="G6">
+        <v>0.405389</v>
+      </c>
+      <c r="H6">
+        <v>0.405389</v>
+      </c>
+      <c r="I6">
+        <v>0.405389</v>
+      </c>
+      <c r="J6">
+        <v>0.405389</v>
+      </c>
+      <c r="K6">
+        <v>0.405389</v>
+      </c>
+      <c r="L6">
+        <v>0.405389</v>
+      </c>
+      <c r="M6">
+        <v>0.405389</v>
+      </c>
+      <c r="N6">
+        <v>0.405389</v>
+      </c>
+      <c r="O6">
+        <v>0.405389</v>
+      </c>
+      <c r="P6">
+        <v>0.405389</v>
+      </c>
+      <c r="Q6">
+        <v>0.405389</v>
+      </c>
+      <c r="R6">
+        <v>0.405389</v>
+      </c>
+      <c r="S6">
+        <v>0.405389</v>
+      </c>
+      <c r="T6">
+        <v>0.405389</v>
+      </c>
+      <c r="U6">
+        <v>0.405389</v>
+      </c>
+      <c r="V6">
+        <v>0.405389</v>
+      </c>
+      <c r="W6">
+        <v>0.405389</v>
+      </c>
+      <c r="X6">
+        <v>0.405389</v>
+      </c>
+      <c r="Y6">
+        <v>0.405389</v>
+      </c>
+      <c r="Z6">
+        <v>0.405389</v>
+      </c>
+      <c r="AA6">
+        <v>0.405389</v>
+      </c>
+      <c r="AB6">
+        <v>0.405389</v>
+      </c>
+      <c r="AC6">
+        <v>0.405389</v>
+      </c>
+      <c r="AD6">
+        <v>0.405389</v>
+      </c>
+      <c r="AE6">
+        <v>0.405389</v>
+      </c>
+      <c r="AF6">
+        <v>0.405389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>0.38150099999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.38188299999999997</v>
+      </c>
+      <c r="D7">
+        <v>0.38204300000000002</v>
+      </c>
+      <c r="E7">
+        <v>0.38212299999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.38216800000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.382216</v>
+      </c>
+      <c r="H7">
+        <v>0.38226100000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.38230399999999998</v>
+      </c>
+      <c r="J7">
+        <v>0.38234299999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.382382</v>
+      </c>
+      <c r="L7">
+        <v>0.38242100000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.38241199999999997</v>
+      </c>
+      <c r="N7">
+        <v>0.38240200000000002</v>
+      </c>
+      <c r="O7">
+        <v>0.38239200000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.38238</v>
+      </c>
+      <c r="Q7">
+        <v>0.38232300000000002</v>
+      </c>
+      <c r="R7">
+        <v>0.38227800000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.38224000000000002</v>
+      </c>
+      <c r="T7">
+        <v>0.38220999999999999</v>
+      </c>
+      <c r="U7">
+        <v>0.38218099999999999</v>
+      </c>
+      <c r="V7">
+        <v>0.38215300000000002</v>
+      </c>
+      <c r="W7">
+        <v>0.38213399999999997</v>
+      </c>
+      <c r="X7">
+        <v>0.38211899999999999</v>
+      </c>
+      <c r="Y7">
+        <v>0.38210699999999997</v>
+      </c>
+      <c r="Z7">
+        <v>0.38209799999999999</v>
+      </c>
+      <c r="AA7">
+        <v>0.38209100000000001</v>
+      </c>
+      <c r="AB7">
+        <v>0.38209399999999999</v>
+      </c>
+      <c r="AC7">
+        <v>0.38209500000000002</v>
+      </c>
+      <c r="AD7">
+        <v>0.38209799999999999</v>
+      </c>
+      <c r="AE7">
+        <v>0.3821</v>
+      </c>
+      <c r="AF7">
+        <v>0.38210300000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>0.27117599999999997</v>
+      </c>
+      <c r="C8">
+        <v>0.27185199999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.27234000000000003</v>
+      </c>
+      <c r="E8">
+        <v>0.27257599999999998</v>
+      </c>
+      <c r="F8">
+        <v>0.27266600000000002</v>
+      </c>
+      <c r="G8">
+        <v>0.27274199999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.27280599999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.27286100000000002</v>
+      </c>
+      <c r="J8">
+        <v>0.27290199999999998</v>
+      </c>
+      <c r="K8">
+        <v>0.27293099999999998</v>
+      </c>
+      <c r="L8">
+        <v>0.27295000000000003</v>
+      </c>
+      <c r="M8">
+        <v>0.27293200000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.27291399999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.27289799999999997</v>
+      </c>
+      <c r="P8">
+        <v>0.27288000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>0.27284399999999998</v>
+      </c>
+      <c r="R8">
+        <v>0.27280799999999999</v>
+      </c>
+      <c r="S8">
+        <v>0.27277299999999999</v>
+      </c>
+      <c r="T8">
+        <v>0.27273999999999998</v>
+      </c>
+      <c r="U8">
+        <v>0.27270299999999997</v>
+      </c>
+      <c r="V8">
+        <v>0.27266499999999999</v>
+      </c>
+      <c r="W8">
+        <v>0.27263399999999999</v>
+      </c>
+      <c r="X8">
+        <v>0.27260600000000001</v>
+      </c>
+      <c r="Y8">
+        <v>0.27258300000000002</v>
+      </c>
+      <c r="Z8">
+        <v>0.272563</v>
+      </c>
+      <c r="AA8">
+        <v>0.27254499999999998</v>
+      </c>
+      <c r="AB8">
+        <v>0.272538</v>
+      </c>
+      <c r="AC8">
+        <v>0.27252700000000002</v>
+      </c>
+      <c r="AD8">
+        <v>0.27251900000000001</v>
+      </c>
+      <c r="AE8">
+        <v>0.272509</v>
+      </c>
+      <c r="AF8">
+        <v>0.27250000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="L9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="M9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="Q9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="R9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="S9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="T9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="U9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="V9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="W9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="X9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="Y9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="Z9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="AA9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="AB9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="AC9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="AD9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="AE9">
+        <v>0.23492099999999999</v>
+      </c>
+      <c r="AF9">
+        <v>0.23492099999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="H10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="I10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="J10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="K10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="L10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="M10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="N10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="O10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="P10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="Q10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="R10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="S10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="T10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="U10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="V10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="W10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="X10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="Y10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="Z10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="AA10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="AB10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="AC10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="AD10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="AE10">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="AF10">
+        <v>0.67415599999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="C11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="D11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="E11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="F11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="G11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="H11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="I11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="J11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="K11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="L11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="M11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="N11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="O11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="P11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="Q11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="R11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="S11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="T11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="U11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="V11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="W11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="X11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="Y11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="Z11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="AA11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="AB11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="AC11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="AD11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="AE11">
+        <v>0.85009900000000005</v>
+      </c>
+      <c r="AF11">
+        <v>0.85009900000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="C12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="D12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="E12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="F12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="G12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="H12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="I12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="J12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="K12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="L12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="M12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="N12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="O12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="P12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="Q12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="R12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="S12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="T12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="U12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="V12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="W12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="X12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="Y12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="Z12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="AA12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="AB12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="AC12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="AD12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="AE12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+      <c r="AF12">
+        <v>5.6003999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="J13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="K13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="L13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="M13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="P13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="Q13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="R13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="S13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="T13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="U13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="V13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="W13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="X13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="Y13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="Z13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="AA13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="AB13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="AC13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="AD13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="AE13">
+        <v>0.12672900000000001</v>
+      </c>
+      <c r="AF13">
+        <v>0.12672900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="C14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="D14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="E14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="F14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="G14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="H14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="I14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="J14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="K14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="L14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="M14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="N14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="O14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="P14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="Q14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="R14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="S14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="T14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="U14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="V14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="W14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="X14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="Y14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="Z14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="AA14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="AB14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="AC14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="AD14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="AE14">
+        <v>0.54992799999999997</v>
+      </c>
+      <c r="AF14">
+        <v>0.54992799999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>0.42069899999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.421985</v>
+      </c>
+      <c r="D15">
+        <v>0.421985</v>
+      </c>
+      <c r="E15">
+        <v>0.421985</v>
+      </c>
+      <c r="F15">
+        <v>0.42442600000000003</v>
+      </c>
+      <c r="G15">
+        <v>0.42442600000000003</v>
+      </c>
+      <c r="H15">
+        <v>0.42440699999999998</v>
+      </c>
+      <c r="I15">
+        <v>0.42424699999999999</v>
+      </c>
+      <c r="J15">
+        <v>0.42424699999999999</v>
+      </c>
+      <c r="K15">
+        <v>0.42424699999999999</v>
+      </c>
+      <c r="L15">
+        <v>0.42424699999999999</v>
+      </c>
+      <c r="M15">
+        <v>0.42424699999999999</v>
+      </c>
+      <c r="N15">
+        <v>0.42424699999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.42424699999999999</v>
+      </c>
+      <c r="P15">
+        <v>0.42424699999999999</v>
+      </c>
+      <c r="Q15">
+        <v>0.42424699999999999</v>
+      </c>
+      <c r="R15">
+        <v>0.42424699999999999</v>
+      </c>
+      <c r="S15">
+        <v>0.424263</v>
+      </c>
+      <c r="T15">
+        <v>0.42427300000000001</v>
+      </c>
+      <c r="U15">
+        <v>0.42427300000000001</v>
+      </c>
+      <c r="V15">
+        <v>0.42427300000000001</v>
+      </c>
+      <c r="W15">
+        <v>0.42427300000000001</v>
+      </c>
+      <c r="X15">
+        <v>0.42427500000000001</v>
+      </c>
+      <c r="Y15">
+        <v>0.42427500000000001</v>
+      </c>
+      <c r="Z15">
+        <v>0.42427500000000001</v>
+      </c>
+      <c r="AA15">
+        <v>0.42427199999999998</v>
+      </c>
+      <c r="AB15">
+        <v>0.42426999999999998</v>
+      </c>
+      <c r="AC15">
+        <v>0.42426700000000001</v>
+      </c>
+      <c r="AD15">
+        <v>0.42426399999999997</v>
+      </c>
+      <c r="AE15">
+        <v>0.424261</v>
+      </c>
+      <c r="AF15">
+        <v>0.42425800000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="C18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="D18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="F18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="G18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="H18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="I18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="J18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="K18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="L18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="M18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="N18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="O18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="P18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="Q18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="R18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="S18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="T18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="U18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="V18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="W18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="X18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="Y18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="Z18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="AA18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="AB18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="AC18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="AD18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="AE18">
+        <v>0.67415599999999998</v>
+      </c>
+      <c r="AF18">
+        <v>0.67415599999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK17"/>
+  <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:AK15"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:AK25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2">
         <v>2015</v>
@@ -693,1377 +2607,1276 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <f>$B2</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:AK9" si="0">$B2</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:R12" si="1">$B3</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J3:R4" si="0">$B3</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:AK10" si="1">$B3</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="W4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <f t="shared" ref="D9:AK14" si="2">$B9</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="W10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" ref="G10:AK15" si="2">$B10</f>
+        <v>0</v>
       </c>
       <c r="AK10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11">
@@ -2173,173 +3986,170 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <f>'Wgtd Avg Expected Cap Factors'!B12</f>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="C12:I12" si="3">$B12</f>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="N12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="P12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="Q12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="R12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="S12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="T12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="U12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="V12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="W12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="X12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="Y12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="Z12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="AA12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="AB12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="AC12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="AD12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="AE12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="AF12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="AG12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="AH12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="AI12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="AJ12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
       <c r="AK12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6003999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <f>$B13</f>
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G13">
@@ -2469,155 +4279,148 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <f>$B14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2647,90 +4450,117 @@
         <v>0</v>
       </c>
       <c r="K15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2843,7 +4673,7 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2951,6 +4781,941 @@
         <v>0</v>
       </c>
       <c r="AK17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:AK18" si="4">F18</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C675A6B7-1944-4BEB-ADA5-F2D2872020CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CF3399D-9D11-46BD-96FC-E6234C4D6952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13395" yWindow="345" windowWidth="15360" windowHeight="16755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Notes:</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>hydrogen combined cycle</t>
+  </si>
+  <si>
+    <t>California</t>
   </si>
 </sst>
 </file>
@@ -277,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -293,6 +296,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,21 +601,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="7">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -619,37 +629,37 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2482,8 +2492,8 @@
   </sheetPr>
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:AK25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:AK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4933,112 +4943,112 @@
         <v>53</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
@@ -5046,112 +5056,112 @@
         <v>54</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
@@ -5159,112 +5169,112 @@
         <v>55</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
@@ -5272,112 +5282,112 @@
         <v>56</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CF3399D-9D11-46BD-96FC-E6234C4D6952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DA8A2D0-2E29-4054-AB40-04B01813D86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13395" yWindow="345" windowWidth="15360" windowHeight="16755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="12330" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
         <v>60</v>
       </c>
       <c r="C1" s="7">
-        <v>45236</v>
+        <v>45265</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2493,7 +2493,7 @@
   <dimension ref="A1:AK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:AK22"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="J3:AK10" si="1">$B3</f>
+        <f t="shared" ref="J3:AK9" si="1">$B3</f>
         <v>0</v>
       </c>
       <c r="T3">
@@ -3719,140 +3719,112 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <f t="shared" ref="G10:AK15" si="2">$B10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -3860,138 +3832,112 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -4003,143 +3949,143 @@
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:I12" si="3">$B12</f>
+        <f t="shared" ref="C12:I12" si="2">$B12</f>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G12:AK15" si="3">$B12</f>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="R12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="S12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="U12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="V12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="W12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="X12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
     </row>
@@ -4163,127 +4109,127 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4316,115 +4262,115 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4460,111 +4406,111 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DA8A2D0-2E29-4054-AB40-04B01813D86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BAB3FF-39B4-48AB-88C4-FD15BF852AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="12330" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Notes:</t>
   </si>
@@ -215,7 +215,10 @@
     <t>hydrogen combined cycle</t>
   </si>
   <si>
-    <t>California</t>
+    <t xml:space="preserve">For hydro, we guarantee a minimum amount of dispatch and also allow plants to </t>
+  </si>
+  <si>
+    <t>participate in the energy market for extra capacity</t>
   </si>
 </sst>
 </file>
@@ -280,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -296,7 +299,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,27 +603,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="7">
-        <v>45265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -629,73 +627,83 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2492,8 +2500,8 @@
   </sheetPr>
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2793,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="J3:AK9" si="1">$B3</f>
+        <f t="shared" ref="J3:AK10" si="1">$B3</f>
         <v>0</v>
       </c>
       <c r="T3">
@@ -3155,140 +3163,112 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="S6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="T6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="U6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="V6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="W6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="X6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -3719,112 +3699,140 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <f t="shared" ref="G10:AK15" si="2">$B10</f>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -3832,112 +3840,138 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -3949,143 +3983,143 @@
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:I12" si="2">$B12</f>
+        <f t="shared" ref="C12:I12" si="3">$B12</f>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="G12:AK15" si="3">$B12</f>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="N12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="R12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="S12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="T12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="U12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="V12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="W12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="X12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
     </row>
@@ -4109,127 +4143,127 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4262,115 +4296,115 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4406,111 +4440,111 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BAB3FF-39B4-48AB-88C4-FD15BF852AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E14045EC-8568-4753-86AF-DE8E1737AF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="840" windowWidth="17430" windowHeight="17160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Notes:</t>
   </si>
@@ -215,10 +215,7 @@
     <t>hydrogen combined cycle</t>
   </si>
   <si>
-    <t xml:space="preserve">For hydro, we guarantee a minimum amount of dispatch and also allow plants to </t>
-  </si>
-  <si>
-    <t>participate in the energy market for extra capacity</t>
+    <t>California</t>
   </si>
 </sst>
 </file>
@@ -283,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -299,6 +296,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,23 +601,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="7">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -627,83 +629,73 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2500,8 +2492,8 @@
   </sheetPr>
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:AK6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2801,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="J3:AK10" si="1">$B3</f>
+        <f t="shared" ref="J3:AK9" si="1">$B3</f>
         <v>0</v>
       </c>
       <c r="T3">
@@ -3699,140 +3691,112 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <f t="shared" ref="G10:AK15" si="2">$B10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -3840,138 +3804,112 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -3983,143 +3921,143 @@
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:I12" si="3">$B12</f>
+        <f t="shared" ref="C12:I12" si="2">$B12</f>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G12:AK15" si="3">$B12</f>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="R12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="S12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="U12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="V12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="W12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="X12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
     </row>
@@ -4143,127 +4081,127 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4296,115 +4234,115 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4440,111 +4378,111 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E14045EC-8568-4753-86AF-DE8E1737AF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B1E420E-C50D-43CA-BB75-046EC5507BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="840" windowWidth="17430" windowHeight="17160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="660" windowWidth="16755" windowHeight="14505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
         <v>60</v>
       </c>
       <c r="C1" s="7">
-        <v>45272</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2026A74E-ACDD-41E2-8EB6-18B4BAB9DED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05BABD32-3657-4DE9-9AED-2DB27DF2803D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="2" activeTab="3" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
+    <workbookView xWindow="1440" yWindow="720" windowWidth="13580" windowHeight="10080" firstSheet="2" activeTab="3" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1310,7 +1310,7 @@
         <v>101</v>
       </c>
       <c r="C1" s="4">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>43</v>
@@ -54722,8 +54722,8 @@
   </sheetPr>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -55324,97 +55324,97 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.75">
@@ -55422,97 +55422,97 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.75">
@@ -56108,97 +56108,97 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.75">
@@ -56794,97 +56794,97 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.75">
@@ -56892,97 +56892,97 @@
         <v>39</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.75">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{253F6BB6-4EDB-4D3E-99D7-28763B2176FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4174AC9D-EA97-4C3E-B9A7-2984B8E98589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="17895" windowHeight="16500" firstSheet="7" activeTab="8" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="3" activeTab="9" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1549,7 +1549,7 @@
         <v>101</v>
       </c>
       <c r="C1" s="4">
-        <v>45730</v>
+        <v>45744</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>43</v>
@@ -2384,8 +2384,8 @@
   </sheetPr>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6375,8 +6375,8 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8061,7 +8061,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="I48">
         <f>INDEX('petroleum adj'!B:B,MATCH(B48,'petroleum adj'!$A:$A,0))</f>
@@ -88906,8 +88906,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -89955,22 +89955,22 @@
         <v>143</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4174AC9D-EA97-4C3E-B9A7-2984B8E98589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFA9B6EC-41F2-49B5-8A37-A1BE1EAFD50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="3" activeTab="9" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
   </bookViews>
@@ -1549,7 +1549,7 @@
         <v>101</v>
       </c>
       <c r="C1" s="4">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>43</v>
@@ -2385,7 +2385,7 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,6 +2976,7 @@
         <v>0.9</v>
       </c>
       <c r="F6">
+        <f>E6</f>
         <v>0.9</v>
       </c>
       <c r="G6">
@@ -6375,8 +6376,8 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6836,7 +6837,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <f>INDEX('petroleum adj'!B:B,MATCH(B13,'petroleum adj'!$A:$A,0))</f>
